--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Tank.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Tank.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E77EC-A261-4E41-B693-141DDBDFE04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="20">
   <si>
     <t>B</t>
   </si>
@@ -74,12 +75,15 @@
   <si>
     <t>Green</t>
   </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +243,14 @@
       <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 4"/>
+        <xdr:cNvPr id="13" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -299,7 +317,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPr id="1030" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -339,7 +363,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPr id="1032" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -379,7 +409,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPr id="1034" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -419,7 +455,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPr id="1036" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -459,7 +501,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1038" name="Picture 14"/>
+        <xdr:cNvPr id="1038" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -499,7 +547,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1040" name="Picture 16"/>
+        <xdr:cNvPr id="1040" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -539,7 +593,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1042" name="Picture 18"/>
+        <xdr:cNvPr id="1042" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -568,9 +628,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -608,7 +668,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -642,6 +702,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -676,9 +737,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -851,19 +913,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="Z28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="CH8" sqref="CH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="98" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -982,7 +1044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:88">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1116,7 +1178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:88">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1250,7 +1312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:88">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1384,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:88">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1518,7 +1580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:88">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1652,7 +1714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:88">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1786,7 +1848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:88">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1914,13 +1976,13 @@
         <v>2</v>
       </c>
       <c r="CH8" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="CJ8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:88">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2054,7 +2116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:88">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2188,7 +2250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:88">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2322,7 +2384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:88">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2450,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:88">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2578,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:88">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2706,7 +2768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:88">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2834,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:88">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2962,7 +3024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:90">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3090,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:90">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -3214,7 +3276,7 @@
       <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
     </row>
-    <row r="21" spans="1:90">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3342,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:90">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3470,7 +3532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:90">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3598,7 +3660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:90">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3726,7 +3788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:90">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3854,7 +3916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:90">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3982,7 +4044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:90">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -4110,7 +4172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:90">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -4238,7 +4300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:90">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -4366,7 +4428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:90">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4494,7 +4556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:90">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -4622,7 +4684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:90">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -4750,7 +4812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:76">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
@@ -4878,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:76">
+    <row r="34" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -5006,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:76">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
@@ -5134,7 +5196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:76">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -5262,7 +5324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:76">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>0</v>
       </c>
@@ -5342,7 +5404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:76">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -5436,7 +5498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:76">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5530,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:76">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -5624,7 +5686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:76">
+    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -5718,7 +5780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:76">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -5812,7 +5874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:76">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -5906,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:76">
+    <row r="46" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
@@ -6000,7 +6062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:76">
+    <row r="47" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
@@ -6094,7 +6156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:76">
+    <row r="48" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8</v>
       </c>
@@ -6188,7 +6250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:85">
+    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
@@ -6282,7 +6344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:85">
+    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
@@ -6417,7 +6479,7 @@
       <c r="CF50" s="1"/>
       <c r="CG50" s="1"/>
     </row>
-    <row r="51" spans="1:85">
+    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>11</v>
       </c>
@@ -6507,7 +6569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:85">
+    <row r="52" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12</v>
       </c>
@@ -6597,7 +6659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:85">
+    <row r="53" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>13</v>
       </c>
@@ -6687,7 +6749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:85">
+    <row r="54" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
       </c>
@@ -6777,7 +6839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:85">
+    <row r="55" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15</v>
       </c>
@@ -6875,24 +6937,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Tank.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Tank.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E77EC-A261-4E41-B693-141DDBDFE04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="28">
   <si>
     <t>B</t>
   </si>
@@ -78,12 +77,36 @@
   <si>
     <t>g</t>
   </si>
+  <si>
+    <t>tank1</t>
+  </si>
+  <si>
+    <t>tank2</t>
+  </si>
+  <si>
+    <t>tank3</t>
+  </si>
+  <si>
+    <t>tank4</t>
+  </si>
+  <si>
+    <t>tank5</t>
+  </si>
+  <si>
+    <t>tank6</t>
+  </si>
+  <si>
+    <t>tank7</t>
+  </si>
+  <si>
+    <t>tank8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,7 +297,7 @@
         <xdr:cNvPr id="13" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -320,7 +343,7 @@
         <xdr:cNvPr id="1030" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -366,7 +389,7 @@
         <xdr:cNvPr id="1032" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -412,7 +435,7 @@
         <xdr:cNvPr id="1034" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -458,7 +481,7 @@
         <xdr:cNvPr id="1036" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,7 +527,7 @@
         <xdr:cNvPr id="1038" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,7 +573,7 @@
         <xdr:cNvPr id="1040" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,7 +619,7 @@
         <xdr:cNvPr id="1042" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -628,9 +651,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -668,7 +691,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -702,7 +725,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -737,10 +759,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -913,19 +934,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CL55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CL57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="CH8" sqref="CH8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="98" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1044,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1178,7 +1199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1312,7 +1333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1446,7 +1467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1580,7 +1601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1714,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1848,7 +1869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1982,7 +2003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2025,6 +2046,9 @@
       <c r="N9" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="S9" t="s">
+        <v>24</v>
+      </c>
       <c r="AD9">
         <v>7</v>
       </c>
@@ -2116,7 +2140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2250,7 +2274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2335,6 +2359,9 @@
       <c r="AQ11" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="AV11" t="s">
+        <v>25</v>
+      </c>
       <c r="BG11">
         <v>9</v>
       </c>
@@ -2384,7 +2411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:88">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2511,8 +2538,11 @@
       <c r="BT12" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="BX12" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:88">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2640,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:88">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2768,7 +2798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2896,7 +2926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3024,7 +3054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3152,7 +3182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:90">
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -3276,7 +3306,7 @@
       <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:90">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3404,7 +3434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:90">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3532,7 +3562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:90">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3660,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:90">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3788,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:90">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3916,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:90">
       <c r="A26">
         <v>5</v>
       </c>
@@ -4044,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90">
       <c r="A27">
         <v>6</v>
       </c>
@@ -4172,7 +4202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90">
       <c r="A28">
         <v>7</v>
       </c>
@@ -4300,7 +4330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:90">
       <c r="A29">
         <v>8</v>
       </c>
@@ -4428,7 +4458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:90">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4556,7 +4586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:90">
       <c r="A31">
         <v>10</v>
       </c>
@@ -4684,7 +4714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:90">
       <c r="A32">
         <v>11</v>
       </c>
@@ -4812,7 +4842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:77">
       <c r="A33">
         <v>12</v>
       </c>
@@ -4940,7 +4970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:77">
       <c r="A34">
         <v>13</v>
       </c>
@@ -4983,6 +5013,9 @@
       <c r="N34" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="R34" t="s">
+        <v>27</v>
+      </c>
       <c r="AD34">
         <v>13</v>
       </c>
@@ -5068,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:77">
       <c r="A35">
         <v>14</v>
       </c>
@@ -5196,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:77">
       <c r="A36">
         <v>15</v>
       </c>
@@ -5324,7 +5357,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:77">
+      <c r="AV38" t="s">
+        <v>20</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:77">
       <c r="B39" s="1">
         <v>0</v>
       </c>
@@ -5404,7 +5445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:77">
       <c r="A40">
         <v>0</v>
       </c>
@@ -5498,7 +5539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:77">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5592,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:77">
       <c r="A42">
         <v>2</v>
       </c>
@@ -5686,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:77">
       <c r="A43">
         <v>3</v>
       </c>
@@ -5780,7 +5821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:77">
       <c r="A44">
         <v>4</v>
       </c>
@@ -5874,7 +5915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:77">
       <c r="A45">
         <v>5</v>
       </c>
@@ -5968,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:77">
       <c r="A46">
         <v>6</v>
       </c>
@@ -6062,7 +6103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:77">
       <c r="A47">
         <v>7</v>
       </c>
@@ -6156,7 +6197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:77">
       <c r="A48">
         <v>8</v>
       </c>
@@ -6250,7 +6291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:85">
       <c r="A49">
         <v>9</v>
       </c>
@@ -6344,7 +6385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:85">
       <c r="A50">
         <v>10</v>
       </c>
@@ -6479,7 +6520,7 @@
       <c r="CF50" s="1"/>
       <c r="CG50" s="1"/>
     </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:85">
       <c r="A51">
         <v>11</v>
       </c>
@@ -6569,7 +6610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:85">
       <c r="A52">
         <v>12</v>
       </c>
@@ -6659,7 +6700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:85">
       <c r="A53">
         <v>13</v>
       </c>
@@ -6749,7 +6790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:85">
       <c r="A54">
         <v>14</v>
       </c>
@@ -6839,7 +6880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:85">
       <c r="A55">
         <v>15</v>
       </c>
@@ -6927,6 +6968,14 @@
       </c>
       <c r="AQ55" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:85">
+      <c r="R57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6937,24 +6986,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
